--- a/每週買進總表.xlsx
+++ b/每週買進總表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>關鍵點買進</t>
   </si>
@@ -37,15 +37,36 @@
     <t>空單放空</t>
   </si>
   <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>1618</t>
+  </si>
+  <si>
     <t>2105</t>
   </si>
   <si>
     <t>2221</t>
   </si>
   <si>
+    <t>2467</t>
+  </si>
+  <si>
     <t>2483</t>
   </si>
   <si>
+    <t>2536</t>
+  </si>
+  <si>
+    <t>3023</t>
+  </si>
+  <si>
+    <t>3533</t>
+  </si>
+  <si>
+    <t>3653</t>
+  </si>
+  <si>
     <t>4119</t>
   </si>
   <si>
@@ -55,6 +76,12 @@
     <t>4417</t>
   </si>
   <si>
+    <t>5403</t>
+  </si>
+  <si>
+    <t>6123</t>
+  </si>
+  <si>
     <t>6139</t>
   </si>
   <si>
@@ -64,10 +91,10 @@
     <t>6245</t>
   </si>
   <si>
-    <t>6432</t>
-  </si>
-  <si>
-    <t>8088</t>
+    <t>8114</t>
+  </si>
+  <si>
+    <t>8426</t>
   </si>
   <si>
     <t>2031</t>
@@ -76,21 +103,30 @@
     <t>1321</t>
   </si>
   <si>
-    <t>2467</t>
-  </si>
-  <si>
-    <t>1402</t>
+    <t>4190</t>
   </si>
   <si>
     <t>1717</t>
   </si>
   <si>
-    <t>5457</t>
+    <t>2059</t>
+  </si>
+  <si>
+    <t>2352</t>
+  </si>
+  <si>
+    <t>4766</t>
+  </si>
+  <si>
+    <t>5015</t>
   </si>
   <si>
     <t>6269</t>
   </si>
   <si>
+    <t>6438</t>
+  </si>
+  <si>
     <t>6612</t>
   </si>
   <si>
@@ -98,6 +134,9 @@
   </si>
   <si>
     <t>3221</t>
+  </si>
+  <si>
+    <t>4739</t>
   </si>
   <si>
     <t>6491</t>
@@ -458,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,16 +534,16 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -515,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -531,8 +570,14 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -554,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -565,7 +610,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -576,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -586,6 +631,9 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
@@ -594,6 +642,9 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
@@ -602,6 +653,9 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
@@ -609,6 +663,81 @@
       </c>
       <c r="B12" t="s">
         <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
